--- a/uploads/excel_files/bulk_admission_sample.xlsx
+++ b/uploads/excel_files/bulk_admission_sample.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Itz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4688B891-2812-45F7-9853-39777993C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D626823D-CF9E-42A5-9F14-E56B4D7ED394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>student_id</t>
   </si>
@@ -28,89 +41,188 @@
     <t>name</t>
   </si>
   <si>
-    <t>father_name</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>mobile</t>
   </si>
   <si>
-    <t>alt_mobile</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>pin_code</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t>passing_year</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>board</t>
-  </si>
-  <si>
     <t>admission_date</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>batch_id</t>
-  </si>
-  <si>
-    <t>Rakesh</t>
-  </si>
-  <si>
-    <t>Suresh</t>
-  </si>
-  <si>
-    <t>Deepak</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>Aman</t>
-  </si>
-  <si>
-    <t>Suraj</t>
-  </si>
-  <si>
-    <t>suresh@gmail.com</t>
-  </si>
-  <si>
-    <t>deepak@gmail.com</t>
-  </si>
-  <si>
-    <t>suraj@gmail.com</t>
+    <t>Divya Singh</t>
+  </si>
+  <si>
+    <t>Ankit Kumar</t>
+  </si>
+  <si>
+    <t>Shivam Kumar</t>
+  </si>
+  <si>
+    <t>Prince Kumar</t>
+  </si>
+  <si>
+    <t>Nishu Kumari</t>
+  </si>
+  <si>
+    <t>Sachet Giri</t>
+  </si>
+  <si>
+    <t>Vicky Kumar Ray</t>
+  </si>
+  <si>
+    <t>Shivam Singh</t>
+  </si>
+  <si>
+    <t>Rajat Verma</t>
+  </si>
+  <si>
+    <t>Abhiraj Kumar</t>
+  </si>
+  <si>
+    <t>Rishu Kumar Byahut</t>
+  </si>
+  <si>
+    <t>Govind Khetan</t>
+  </si>
+  <si>
+    <t>Md Nur Alam</t>
+  </si>
+  <si>
+    <t>Rajdeep Ranjan</t>
+  </si>
+  <si>
+    <t>Deepshikha</t>
+  </si>
+  <si>
+    <t>Nisha Kumari</t>
+  </si>
+  <si>
+    <t>Khushi Kumari</t>
+  </si>
+  <si>
+    <t>Niraj Kumar</t>
+  </si>
+  <si>
+    <t>Riyanshu Mahto</t>
+  </si>
+  <si>
+    <t>Shreya Kumari</t>
+  </si>
+  <si>
+    <t>Simran Kumari</t>
+  </si>
+  <si>
+    <t>Sonali Kumari</t>
+  </si>
+  <si>
+    <t>Sonam Kumari</t>
+  </si>
+  <si>
+    <t>Anshu Pandey</t>
+  </si>
+  <si>
+    <t>Vandana Kumari</t>
+  </si>
+  <si>
+    <t>Kunal Kumar</t>
+  </si>
+  <si>
+    <t>Rohan Sharma</t>
+  </si>
+  <si>
+    <t>Adarsh Raj</t>
+  </si>
+  <si>
+    <t>Kajal Kumari</t>
+  </si>
+  <si>
+    <t>Angel Kumari</t>
+  </si>
+  <si>
+    <t>Pritam Kumar</t>
+  </si>
+  <si>
+    <t>Aditya Kumar</t>
+  </si>
+  <si>
+    <t>Chhotu Ali</t>
+  </si>
+  <si>
+    <t>Arif Muhammad</t>
+  </si>
+  <si>
+    <t>Vaishnavi Mishra</t>
+  </si>
+  <si>
+    <t>Durga Mishra</t>
+  </si>
+  <si>
+    <t>Banti Kumari</t>
+  </si>
+  <si>
+    <t>Shivangi Singh</t>
+  </si>
+  <si>
+    <t>Himanshu Kumar</t>
+  </si>
+  <si>
+    <t>Manikant Kumar</t>
+  </si>
+  <si>
+    <t>Vicky Kumar</t>
+  </si>
+  <si>
+    <t>Akash Kumar Singh</t>
+  </si>
+  <si>
+    <t>Ravi Ranjan Kumar Singh</t>
+  </si>
+  <si>
+    <t>Ankit Kumar Singh</t>
+  </si>
+  <si>
+    <t>Vishal Kumar</t>
+  </si>
+  <si>
+    <t>Akansha Kumari</t>
+  </si>
+  <si>
+    <t>Sameer Ahmad</t>
+  </si>
+  <si>
+    <t>Kunal Singh Kaushik</t>
+  </si>
+  <si>
+    <t>Shrishti Shah</t>
+  </si>
+  <si>
+    <t>Abhishek Kumar</t>
+  </si>
+  <si>
+    <t>Anurag Kumar</t>
+  </si>
+  <si>
+    <t>Prem Kumar Yadav</t>
+  </si>
+  <si>
+    <t>Md Faisal</t>
+  </si>
+  <si>
+    <t>Md Asif Raja</t>
+  </si>
+  <si>
+    <t>Masoom Ali</t>
+  </si>
+  <si>
+    <t>Jiya Kumari</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,23 +236,33 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -163,21 +285,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,144 +674,1137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>8844</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="5">
+        <v>9341407463</v>
+      </c>
+      <c r="D2" t="str">
+        <f>LOWER(_xlfn.CONCAT(LEFT(B2,5),"@","gmail.com"))</f>
+        <v>divya@gmail.com</v>
+      </c>
+      <c r="E2" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>8869</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C3" s="5">
+        <v>8809424817</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D62" si="0">LOWER(_xlfn.CONCAT(LEFT(B3,5),"@","gmail.com"))</f>
+        <v>ankit@gmail.com</v>
+      </c>
+      <c r="E3" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>8769</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C4" s="5">
+        <v>9234811421</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>shiva@gmail.com</v>
+      </c>
+      <c r="E4" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>8818</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C5" s="5">
+        <v>8434483435</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>princ@gmail.com</v>
+      </c>
+      <c r="E5" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>8868</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C6" s="5">
+        <v>6207619679</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>nishu@gmail.com</v>
+      </c>
+      <c r="E6" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>8786</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C7" s="5">
+        <v>9102734590</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>sache@gmail.com</v>
+      </c>
+      <c r="E7" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8872</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C8" s="5">
+        <v>9504728522</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>vicky@gmail.com</v>
+      </c>
+      <c r="E8" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8817</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C9" s="5">
+        <v>7667022353</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>shiva@gmail.com</v>
+      </c>
+      <c r="E9" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8812</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="C10" s="5">
+        <v>8340661218</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>rajat@gmail.com</v>
+      </c>
+      <c r="E10" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8776</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="C11" s="5">
+        <v>9631537233</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>abhir@gmail.com</v>
+      </c>
+      <c r="E11" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>8750</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C12" s="5">
+        <v>9693018910</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>rishu@gmail.com</v>
+      </c>
+      <c r="E12" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>7513</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="C13" s="5">
+        <v>9693018910</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>govin@gmail.com</v>
+      </c>
+      <c r="E13" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>8908</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="C14" s="9">
+        <v>8804473789</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>md nu@gmail.com</v>
+      </c>
+      <c r="E14" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>8767</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8412</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C15" s="5">
+        <v>7488484750</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>rajde@gmail.com</v>
+      </c>
+      <c r="E15" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>8847</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C16" s="5">
+        <v>8789051445</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>deeps@gmail.com</v>
+      </c>
+      <c r="E16" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>8848</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
-        <v>8985458458</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="C17" s="5">
+        <v>9835973477</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>nisha@gmail.com</v>
+      </c>
+      <c r="E17" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>8849</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5">
+        <v>9631353399</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>khush@gmail.com</v>
+      </c>
+      <c r="E18" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>8824</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
+        <v>9122315058</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>niraj@gmail.com</v>
+      </c>
+      <c r="E19" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>8762</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5">
+        <v>9142747958</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>riyan@gmail.com</v>
+      </c>
+      <c r="E20" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>8973</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5">
+        <v>7061200826</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>shrey@gmail.com</v>
+      </c>
+      <c r="E21" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>8970</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="2">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>8413</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C22" s="5">
+        <v>8804143255</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>simra@gmail.com</v>
+      </c>
+      <c r="E22" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>9021</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5">
+        <v>9661542029</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>sonal@gmail.com</v>
+      </c>
+      <c r="E23" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>9022</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5">
+        <v>9097253802</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>sonam@gmail.com</v>
+      </c>
+      <c r="E24" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>9009</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6299595983</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>shiva@gmail.com</v>
+      </c>
+      <c r="E25" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>8992</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="5">
+        <v>8825276147</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>anshu@gmail.com</v>
+      </c>
+      <c r="E26" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>8671</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="5">
+        <v>7494095598</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>vanda@gmail.com</v>
+      </c>
+      <c r="E27" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>9017</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5">
+        <v>7484861512</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>kunal@gmail.com</v>
+      </c>
+      <c r="E28" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>9016</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="5">
+        <v>9934415569</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>rohan@gmail.com</v>
+      </c>
+      <c r="E29" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>8959</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="5">
+        <v>9430676507</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>adars@gmail.com</v>
+      </c>
+      <c r="E30" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>9011</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="5">
+        <v>9572999790</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>kajal@gmail.com</v>
+      </c>
+      <c r="E31" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>9001</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="5">
+        <v>8102505331</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>angel@gmail.com</v>
+      </c>
+      <c r="E32" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>9062</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="5">
+        <v>9504333747</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>prita@gmail.com</v>
+      </c>
+      <c r="E33" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>9057</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="5">
+        <v>9437992738</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>adity@gmail.com</v>
+      </c>
+      <c r="E34" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>9010</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="5">
+        <v>7050892575</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>chhot@gmail.com</v>
+      </c>
+      <c r="E35" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>9006</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="5">
+        <v>9229144894</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>arif @gmail.com</v>
+      </c>
+      <c r="E36" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>9045</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="5">
+        <v>9507068006</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>vaish@gmail.com</v>
+      </c>
+      <c r="E37" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>9046</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="5">
+        <v>9507068006</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>durga@gmail.com</v>
+      </c>
+      <c r="E38" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>8851</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="5">
+        <v>7277902582</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>banti@gmail.com</v>
+      </c>
+      <c r="E39" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>8850</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="5">
+        <v>7667932565</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>shiva@gmail.com</v>
+      </c>
+      <c r="E40" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>8893</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="5">
+        <v>8002485840</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>himan@gmail.com</v>
+      </c>
+      <c r="E41" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>8894</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="5">
+        <v>7859059318</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>manik@gmail.com</v>
+      </c>
+      <c r="E42" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>8895</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="5">
+        <v>8207876153</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>vicky@gmail.com</v>
+      </c>
+      <c r="E43" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>8223</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="5">
+        <v>8210093948</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>akash@gmail.com</v>
+      </c>
+      <c r="E44" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>8218</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="5">
+        <v>7667909597</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>ravi @gmail.com</v>
+      </c>
+      <c r="E45" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>8873</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="5">
+        <v>6203724217</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>ankit@gmail.com</v>
+      </c>
+      <c r="E46" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>8835</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="5">
+        <v>8541959912</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>visha@gmail.com</v>
+      </c>
+      <c r="E47" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>8965</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="5">
+        <v>9709966339</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>adity@gmail.com</v>
+      </c>
+      <c r="E48" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>8876</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>8985458469</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8414</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>8985458480</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>45866</v>
+      <c r="C49" s="5">
+        <v>8102939350</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>khush@gmail.com</v>
+      </c>
+      <c r="E49" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>8832</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="5">
+        <v>9113791321</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>akans@gmail.com</v>
+      </c>
+      <c r="E50" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>8748</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="5">
+        <v>9031149226</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>samee@gmail.com</v>
+      </c>
+      <c r="E51" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>8836</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="5">
+        <v>7903184671</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>banti@gmail.com</v>
+      </c>
+      <c r="E52" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>8823</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="5">
+        <v>9060302771</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>kunal@gmail.com</v>
+      </c>
+      <c r="E53" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>8845</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="5">
+        <v>7870059095</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>shris@gmail.com</v>
+      </c>
+      <c r="E54" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>7695</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="5">
+        <v>7782866812</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>abhis@gmail.com</v>
+      </c>
+      <c r="E55" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>8789</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="5">
+        <v>9135587284</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>anura@gmail.com</v>
+      </c>
+      <c r="E56" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>7729</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="5">
+        <v>8873805976</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>prem @gmail.com</v>
+      </c>
+      <c r="E57" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>8909</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="5">
+        <v>9608859816</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>md fa@gmail.com</v>
+      </c>
+      <c r="E58" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>8921</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="5">
+        <v>9608968985</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>md as@gmail.com</v>
+      </c>
+      <c r="E59" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>8928</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="5">
+        <v>7970340462</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>masoo@gmail.com</v>
+      </c>
+      <c r="E60" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>8813</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="5">
+        <v>7070103146</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>jiya @gmail.com</v>
+      </c>
+      <c r="E61" s="11">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>8953</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="5">
+        <v>9798401720</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>shiva@gmail.com</v>
+      </c>
+      <c r="E62" s="11">
+        <v>45870</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{FBEE2BAA-691A-4EAC-B875-A1E3F07D8602}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{141BB967-E316-4C9A-A42F-8FF74830724E}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{E24351D2-6DA2-4734-93CF-989A9EC41688}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>